--- a/sample_data.xlsx
+++ b/sample_data.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://gvwtech-my.sharepoint.com/personal/tpavithra_global-value-web_com/Documents/Desktop/GVW/WORK/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="102" documentId="8_{8435CA49-4FDD-4DE9-B8C2-96326FA541F9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{136F993C-00E6-4AC6-B289-006F837160BE}"/>
+  <xr:revisionPtr revIDLastSave="136" documentId="8_{8435CA49-4FDD-4DE9-B8C2-96326FA541F9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{657451AD-6371-4F03-B7CA-7C1627A1EA90}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{11805BCA-E219-4EE3-99F7-7918C114AC89}"/>
   </bookViews>
@@ -16,7 +16,7 @@
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$B$1:$B$55</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$B$1:$B$58</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="105" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="116" uniqueCount="15">
   <si>
     <t>order_number</t>
   </si>
@@ -467,10 +467,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1EB7ACB3-7045-489A-A345-1CEF7DE1A3C6}">
-  <dimension ref="A1:K55"/>
+  <dimension ref="A1:K60"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
-      <selection sqref="A1:F29"/>
+    <sheetView tabSelected="1" topLeftCell="A40" workbookViewId="0">
+      <selection activeCell="A61" sqref="A61"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1048,189 +1048,144 @@
       </c>
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A30" s="1"/>
+      <c r="A30" s="1">
+        <v>80000002</v>
+      </c>
+      <c r="B30" s="1">
+        <v>1</v>
+      </c>
+      <c r="C30" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D30" s="1">
+        <v>2011</v>
+      </c>
+      <c r="E30" s="1">
+        <v>0</v>
+      </c>
+      <c r="F30" s="1">
+        <v>0</v>
+      </c>
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A31" s="1"/>
+      <c r="A31" s="1">
+        <v>80000002</v>
+      </c>
+      <c r="B31" s="1">
+        <v>1</v>
+      </c>
+      <c r="C31" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D31" s="1">
+        <v>2011</v>
+      </c>
+      <c r="E31" s="1">
+        <v>0</v>
+      </c>
+      <c r="F31" s="1">
+        <v>0</v>
+      </c>
     </row>
     <row r="32" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A32" t="s">
+      <c r="A32" s="1">
+        <v>80000002</v>
+      </c>
+      <c r="B32" s="1">
+        <v>4</v>
+      </c>
+      <c r="C32" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D32" s="1">
+        <v>2011</v>
+      </c>
+      <c r="E32" s="1">
+        <v>0</v>
+      </c>
+      <c r="F32" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A33" s="1"/>
+    </row>
+    <row r="34" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A34" s="1"/>
+    </row>
+    <row r="35" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A35" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="34" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A34" s="3" t="s">
+    <row r="37" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A37" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="B34" s="3"/>
-      <c r="C34" s="3"/>
-      <c r="D34" s="3"/>
-      <c r="E34" s="3"/>
-      <c r="F34" s="3"/>
-      <c r="G34" s="4" t="s">
+      <c r="B37" s="3"/>
+      <c r="C37" s="3"/>
+      <c r="D37" s="3"/>
+      <c r="E37" s="3"/>
+      <c r="F37" s="3"/>
+      <c r="G37" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="H34" s="4"/>
-      <c r="I34" s="4"/>
-      <c r="J34" s="4"/>
-      <c r="K34" s="4"/>
-    </row>
-    <row r="35" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A35" s="3"/>
-      <c r="B35" s="3"/>
-      <c r="C35" s="3"/>
-      <c r="D35" s="3"/>
-      <c r="E35" s="3"/>
-      <c r="F35" s="3"/>
-      <c r="G35" s="4"/>
-      <c r="H35" s="4"/>
-      <c r="I35" s="4"/>
-      <c r="J35" s="4"/>
-      <c r="K35" s="4"/>
-    </row>
-    <row r="37" spans="1:11" s="2" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A37" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="B37" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="C37" s="2" t="s">
+      <c r="H37" s="4"/>
+      <c r="I37" s="4"/>
+      <c r="J37" s="4"/>
+      <c r="K37" s="4"/>
+    </row>
+    <row r="38" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A38" s="3"/>
+      <c r="B38" s="3"/>
+      <c r="C38" s="3"/>
+      <c r="D38" s="3"/>
+      <c r="E38" s="3"/>
+      <c r="F38" s="3"/>
+      <c r="G38" s="4"/>
+      <c r="H38" s="4"/>
+      <c r="I38" s="4"/>
+      <c r="J38" s="4"/>
+      <c r="K38" s="4"/>
+    </row>
+    <row r="40" spans="1:11" s="2" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A40" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B40" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C40" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D37" s="2" t="s">
+      <c r="D40" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="E37" s="2" t="s">
+      <c r="E40" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="F37" s="2" t="s">
+      <c r="F40" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="G37" s="2" t="s">
+      <c r="G40" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="H37" s="2" t="s">
+      <c r="H40" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="I37" s="2" t="s">
+      <c r="I40" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="J37" s="2" t="s">
+      <c r="J40" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="K37" s="2" t="s">
+      <c r="K40" s="2" t="s">
         <v>8</v>
-      </c>
-    </row>
-    <row r="39" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A39" s="1">
-        <v>1000660842</v>
-      </c>
-      <c r="B39" s="1">
-        <v>1</v>
-      </c>
-      <c r="C39" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="D39" s="1">
-        <v>2016</v>
-      </c>
-      <c r="E39" s="1">
-        <v>1538.81</v>
-      </c>
-      <c r="F39" s="1">
-        <v>0</v>
-      </c>
-      <c r="G39" s="1">
-        <v>4</v>
-      </c>
-      <c r="H39" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="I39" s="1">
-        <v>2016</v>
-      </c>
-      <c r="J39" s="1">
-        <v>0</v>
-      </c>
-      <c r="K39" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="40" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A40" s="1">
-        <v>1000660842</v>
-      </c>
-      <c r="B40" s="1">
-        <v>1</v>
-      </c>
-      <c r="C40" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="D40" s="1">
-        <v>2016</v>
-      </c>
-      <c r="E40" s="1">
-        <v>1632</v>
-      </c>
-      <c r="F40" s="1">
-        <v>0</v>
-      </c>
-      <c r="G40" s="1">
-        <v>4</v>
-      </c>
-      <c r="H40" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="I40" s="1">
-        <v>2016</v>
-      </c>
-      <c r="J40" s="1">
-        <v>0</v>
-      </c>
-      <c r="K40" s="1">
-        <v>478.8</v>
-      </c>
-    </row>
-    <row r="41" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A41" s="1">
-        <v>1000660842</v>
-      </c>
-      <c r="B41" s="1">
-        <v>1</v>
-      </c>
-      <c r="C41" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="D41" s="1">
-        <v>2016</v>
-      </c>
-      <c r="E41" s="1">
-        <v>116.05</v>
-      </c>
-      <c r="F41" s="1">
-        <v>0</v>
-      </c>
-      <c r="G41" s="1">
-        <v>4</v>
-      </c>
-      <c r="H41" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="I41" s="1">
-        <v>2016</v>
-      </c>
-      <c r="J41" s="1">
-        <v>0</v>
-      </c>
-      <c r="K41" s="1">
-        <v>0</v>
       </c>
     </row>
     <row r="42" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A42" s="1">
-        <v>1000598974</v>
+        <v>1000660842</v>
       </c>
       <c r="B42" s="1">
         <v>1</v>
@@ -1239,13 +1194,13 @@
         <v>4</v>
       </c>
       <c r="D42" s="1">
-        <v>2015</v>
+        <v>2016</v>
       </c>
       <c r="E42" s="1">
-        <v>0</v>
+        <v>1538.81</v>
       </c>
       <c r="F42" s="1">
-        <v>4815</v>
+        <v>0</v>
       </c>
       <c r="G42" s="1">
         <v>4</v>
@@ -1254,18 +1209,18 @@
         <v>4</v>
       </c>
       <c r="I42" s="1">
-        <v>2015</v>
+        <v>2016</v>
       </c>
       <c r="J42" s="1">
         <v>0</v>
       </c>
       <c r="K42" s="1">
-        <v>5040</v>
+        <v>0</v>
       </c>
     </row>
     <row r="43" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A43" s="1">
-        <v>1000598974</v>
+        <v>1000660842</v>
       </c>
       <c r="B43" s="1">
         <v>1</v>
@@ -1274,13 +1229,13 @@
         <v>5</v>
       </c>
       <c r="D43" s="1">
-        <v>2015</v>
+        <v>2016</v>
       </c>
       <c r="E43" s="1">
-        <v>0</v>
+        <v>1632</v>
       </c>
       <c r="F43" s="1">
-        <v>3600</v>
+        <v>0</v>
       </c>
       <c r="G43" s="1">
         <v>4</v>
@@ -1289,18 +1244,18 @@
         <v>5</v>
       </c>
       <c r="I43" s="1">
-        <v>2015</v>
+        <v>2016</v>
       </c>
       <c r="J43" s="1">
         <v>0</v>
       </c>
       <c r="K43" s="1">
-        <v>17621</v>
+        <v>478.8</v>
       </c>
     </row>
     <row r="44" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A44" s="1">
-        <v>1000598974</v>
+        <v>1000660842</v>
       </c>
       <c r="B44" s="1">
         <v>1</v>
@@ -1309,25 +1264,25 @@
         <v>3</v>
       </c>
       <c r="D44" s="1">
-        <v>2015</v>
+        <v>2016</v>
       </c>
       <c r="E44" s="1">
-        <v>0</v>
+        <v>116.05</v>
       </c>
       <c r="F44" s="1">
-        <v>17654.2</v>
+        <v>0</v>
       </c>
       <c r="G44" s="1">
         <v>4</v>
       </c>
       <c r="H44" s="1" t="s">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="I44" s="1">
-        <v>2015</v>
+        <v>2016</v>
       </c>
       <c r="J44" s="1">
-        <v>50.53</v>
+        <v>0</v>
       </c>
       <c r="K44" s="1">
         <v>0</v>
@@ -1337,26 +1292,26 @@
       <c r="A45" s="1">
         <v>1000598974</v>
       </c>
-      <c r="B45" s="1" t="s">
-        <v>11</v>
+      <c r="B45" s="1">
+        <v>1</v>
       </c>
       <c r="C45" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="D45" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="E45" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="F45" s="1" t="s">
-        <v>11</v>
+        <v>4</v>
+      </c>
+      <c r="D45" s="1">
+        <v>2015</v>
+      </c>
+      <c r="E45" s="1">
+        <v>0</v>
+      </c>
+      <c r="F45" s="1">
+        <v>4815</v>
       </c>
       <c r="G45" s="1">
         <v>4</v>
       </c>
       <c r="H45" s="1" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="I45" s="1">
         <v>2015</v>
@@ -1365,62 +1320,62 @@
         <v>0</v>
       </c>
       <c r="K45" s="1">
-        <v>0</v>
+        <v>5040</v>
       </c>
     </row>
     <row r="46" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A46" s="1">
-        <v>1000396572</v>
+        <v>1000598974</v>
       </c>
       <c r="B46" s="1">
         <v>1</v>
       </c>
       <c r="C46" s="1" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D46" s="1">
-        <v>2011</v>
+        <v>2015</v>
       </c>
       <c r="E46" s="1">
-        <v>760</v>
+        <v>0</v>
       </c>
       <c r="F46" s="1">
-        <v>0</v>
+        <v>3600</v>
       </c>
       <c r="G46" s="1">
         <v>4</v>
       </c>
       <c r="H46" s="1" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="I46" s="1">
-        <v>2011</v>
+        <v>2015</v>
       </c>
       <c r="J46" s="1">
         <v>0</v>
       </c>
       <c r="K46" s="1">
-        <v>1292</v>
+        <v>17621</v>
       </c>
     </row>
     <row r="47" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A47" s="1">
-        <v>1000396572</v>
+        <v>1000598974</v>
       </c>
       <c r="B47" s="1">
         <v>1</v>
       </c>
       <c r="C47" s="1" t="s">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="D47" s="1">
-        <v>2011</v>
+        <v>2015</v>
       </c>
       <c r="E47" s="1">
-        <v>112.1</v>
+        <v>0</v>
       </c>
       <c r="F47" s="1">
-        <v>0</v>
+        <v>17654.2</v>
       </c>
       <c r="G47" s="1">
         <v>4</v>
@@ -1429,53 +1384,53 @@
         <v>9</v>
       </c>
       <c r="I47" s="1">
-        <v>2011</v>
+        <v>2015</v>
       </c>
       <c r="J47" s="1">
-        <v>0</v>
+        <v>50.53</v>
       </c>
       <c r="K47" s="1">
-        <v>7.6</v>
+        <v>0</v>
       </c>
     </row>
     <row r="48" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A48" s="1">
-        <v>1000396572</v>
-      </c>
-      <c r="B48" s="1">
-        <v>1</v>
+        <v>1000598974</v>
+      </c>
+      <c r="B48" s="1" t="s">
+        <v>11</v>
       </c>
       <c r="C48" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="D48" s="1">
-        <v>2011</v>
-      </c>
-      <c r="E48" s="1">
-        <v>666.13</v>
-      </c>
-      <c r="F48" s="1">
-        <v>0</v>
+        <v>11</v>
+      </c>
+      <c r="D48" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E48" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="F48" s="1" t="s">
+        <v>11</v>
       </c>
       <c r="G48" s="1">
         <v>4</v>
       </c>
       <c r="H48" s="1" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="I48" s="1">
-        <v>2011</v>
+        <v>2015</v>
       </c>
       <c r="J48" s="1">
         <v>0</v>
       </c>
       <c r="K48" s="1">
-        <v>666.13</v>
+        <v>0</v>
       </c>
     </row>
     <row r="49" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A49" s="1">
-        <v>1000339523</v>
+        <v>1000396572</v>
       </c>
       <c r="B49" s="1">
         <v>1</v>
@@ -1484,13 +1439,13 @@
         <v>4</v>
       </c>
       <c r="D49" s="1">
-        <v>2009</v>
+        <v>2011</v>
       </c>
       <c r="E49" s="1">
-        <v>0</v>
+        <v>760</v>
       </c>
       <c r="F49" s="1">
-        <v>1680</v>
+        <v>0</v>
       </c>
       <c r="G49" s="1">
         <v>4</v>
@@ -1499,103 +1454,103 @@
         <v>4</v>
       </c>
       <c r="I49" s="1">
-        <v>2009</v>
+        <v>2011</v>
       </c>
       <c r="J49" s="1">
         <v>0</v>
       </c>
       <c r="K49" s="1">
-        <v>1207.5</v>
+        <v>1292</v>
       </c>
     </row>
     <row r="50" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A50" s="1">
-        <v>1000339523</v>
+        <v>1000396572</v>
       </c>
       <c r="B50" s="1">
         <v>1</v>
       </c>
       <c r="C50" s="1" t="s">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="D50" s="1">
-        <v>2009</v>
+        <v>2011</v>
       </c>
       <c r="E50" s="1">
-        <v>0</v>
+        <v>112.1</v>
       </c>
       <c r="F50" s="1">
-        <v>1690.58</v>
+        <v>0</v>
       </c>
       <c r="G50" s="1">
         <v>4</v>
       </c>
       <c r="H50" s="1" t="s">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="I50" s="1">
-        <v>2009</v>
+        <v>2011</v>
       </c>
       <c r="J50" s="1">
         <v>0</v>
       </c>
       <c r="K50" s="1">
-        <v>0</v>
+        <v>7.6</v>
       </c>
     </row>
     <row r="51" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A51" s="1">
-        <v>1000339523</v>
-      </c>
-      <c r="B51" s="1" t="s">
-        <v>11</v>
+        <v>1000396572</v>
+      </c>
+      <c r="B51" s="1">
+        <v>1</v>
       </c>
       <c r="C51" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="D51" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="E51" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="F51" s="1" t="s">
-        <v>11</v>
+        <v>5</v>
+      </c>
+      <c r="D51" s="1">
+        <v>2011</v>
+      </c>
+      <c r="E51" s="1">
+        <v>666.13</v>
+      </c>
+      <c r="F51" s="1">
+        <v>0</v>
       </c>
       <c r="G51" s="1">
         <v>4</v>
       </c>
       <c r="H51" s="1" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="I51" s="1">
-        <v>2010</v>
+        <v>2011</v>
       </c>
       <c r="J51" s="1">
         <v>0</v>
       </c>
       <c r="K51" s="1">
-        <v>0</v>
+        <v>666.13</v>
       </c>
     </row>
     <row r="52" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A52" s="1">
         <v>1000339523</v>
       </c>
-      <c r="B52" s="1" t="s">
-        <v>11</v>
+      <c r="B52" s="1">
+        <v>1</v>
       </c>
       <c r="C52" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="D52" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="E52" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="F52" s="1" t="s">
-        <v>11</v>
+        <v>4</v>
+      </c>
+      <c r="D52" s="1">
+        <v>2009</v>
+      </c>
+      <c r="E52" s="1">
+        <v>0</v>
+      </c>
+      <c r="F52" s="1">
+        <v>1680</v>
       </c>
       <c r="G52" s="1">
         <v>4</v>
@@ -1617,26 +1572,26 @@
       <c r="A53" s="1">
         <v>1000339523</v>
       </c>
-      <c r="B53" s="1" t="s">
-        <v>11</v>
+      <c r="B53" s="1">
+        <v>1</v>
       </c>
       <c r="C53" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="D53" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="E53" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="F53" s="1" t="s">
-        <v>11</v>
+        <v>5</v>
+      </c>
+      <c r="D53" s="1">
+        <v>2009</v>
+      </c>
+      <c r="E53" s="1">
+        <v>0</v>
+      </c>
+      <c r="F53" s="1">
+        <v>1690.58</v>
       </c>
       <c r="G53" s="1">
         <v>4</v>
       </c>
       <c r="H53" s="1" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="I53" s="1">
         <v>2009</v>
@@ -1645,7 +1600,7 @@
         <v>0</v>
       </c>
       <c r="K53" s="1">
-        <v>5.01</v>
+        <v>0</v>
       </c>
     </row>
     <row r="54" spans="1:11" x14ac:dyDescent="0.35">
@@ -1671,7 +1626,7 @@
         <v>4</v>
       </c>
       <c r="H54" s="1" t="s">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="I54" s="1">
         <v>2010</v>
@@ -1706,25 +1661,200 @@
         <v>4</v>
       </c>
       <c r="H55" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="I55" s="1">
+        <v>2009</v>
+      </c>
+      <c r="J55" s="1">
+        <v>0</v>
+      </c>
+      <c r="K55" s="1">
+        <v>1207.5</v>
+      </c>
+    </row>
+    <row r="56" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A56" s="1">
+        <v>1000339523</v>
+      </c>
+      <c r="B56" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C56" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="D56" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E56" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="F56" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="G56" s="1">
+        <v>4</v>
+      </c>
+      <c r="H56" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="I56" s="1">
+        <v>2009</v>
+      </c>
+      <c r="J56" s="1">
+        <v>0</v>
+      </c>
+      <c r="K56" s="1">
+        <v>5.01</v>
+      </c>
+    </row>
+    <row r="57" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A57" s="1">
+        <v>1000339523</v>
+      </c>
+      <c r="B57" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C57" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="D57" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E57" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="F57" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="G57" s="1">
+        <v>4</v>
+      </c>
+      <c r="H57" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="I57" s="1">
+        <v>2010</v>
+      </c>
+      <c r="J57" s="1">
+        <v>0</v>
+      </c>
+      <c r="K57" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A58" s="1">
+        <v>1000339523</v>
+      </c>
+      <c r="B58" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C58" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="D58" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E58" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="F58" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="G58" s="1">
+        <v>4</v>
+      </c>
+      <c r="H58" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="I55" s="1">
+      <c r="I58" s="1">
         <v>2010</v>
       </c>
-      <c r="J55" s="1">
-        <v>0</v>
-      </c>
-      <c r="K55" s="1">
-        <v>0</v>
+      <c r="J58" s="1">
+        <v>0</v>
+      </c>
+      <c r="K58" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A59" s="1">
+        <v>80000002</v>
+      </c>
+      <c r="B59" s="1">
+        <v>1</v>
+      </c>
+      <c r="C59" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D59" s="1">
+        <v>2011</v>
+      </c>
+      <c r="E59" s="1">
+        <v>0</v>
+      </c>
+      <c r="F59" s="1">
+        <v>0</v>
+      </c>
+      <c r="G59" s="1">
+        <v>4</v>
+      </c>
+      <c r="H59" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="I59" s="1">
+        <v>2011</v>
+      </c>
+      <c r="J59" s="1">
+        <v>0</v>
+      </c>
+      <c r="K59" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="60" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A60" s="1">
+        <v>80000002</v>
+      </c>
+      <c r="B60" s="1">
+        <v>1</v>
+      </c>
+      <c r="C60" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D60" s="1">
+        <v>2011</v>
+      </c>
+      <c r="E60" s="1">
+        <v>0</v>
+      </c>
+      <c r="F60" s="1">
+        <v>0</v>
+      </c>
+      <c r="G60" t="s">
+        <v>11</v>
+      </c>
+      <c r="H60" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="I60" t="s">
+        <v>11</v>
+      </c>
+      <c r="J60" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="K60" t="s">
+        <v>11</v>
       </c>
     </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="C46:C48">
-    <sortCondition ref="C46:C48"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="C59:C60">
+    <sortCondition ref="C59:C60"/>
   </sortState>
   <mergeCells count="2">
-    <mergeCell ref="A34:F35"/>
-    <mergeCell ref="G34:K35"/>
+    <mergeCell ref="A37:F38"/>
+    <mergeCell ref="G37:K38"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
